--- a/config_6.29/item_config.xlsx
+++ b/config_6.29/item_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="597"/>
+    <workbookView windowWidth="11535" windowHeight="10350" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="config|道具配置" sheetId="5" r:id="rId1"/>
@@ -1764,7 +1764,7 @@
     <t>act_ty_by_drop_7</t>
   </si>
   <si>
-    <t>欢乐券</t>
+    <t>西瓜</t>
   </si>
   <si>
     <t>掉落物活动通用道具</t>
@@ -3475,8 +3475,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -3537,24 +3537,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3567,47 +3551,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3622,14 +3575,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3644,6 +3590,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -3651,15 +3605,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3667,9 +3613,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3684,6 +3638,52 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="39">
@@ -3743,162 +3743,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3911,7 +3755,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3951,11 +3951,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3975,28 +3981,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4019,32 +4032,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4056,10 +4056,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4068,137 +4068,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4650,10 +4650,10 @@
   <sheetPr/>
   <dimension ref="A1:Q328"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F137" sqref="F137"/>
+      <selection pane="bottomLeft" activeCell="J130" sqref="J130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
